--- a/Endpoints and assignment.xlsx
+++ b/Endpoints and assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php-rest-api-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176549AB-CA7B-41DA-89DF-E717983E2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6EAB88-9AB3-488B-A998-E2624C6B8286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D17AACAC-BA83-45F4-AE3A-32CB66DA4903}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15285" xr2:uid="{D17AACAC-BA83-45F4-AE3A-32CB66DA4903}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoints" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Method</t>
   </si>
@@ -139,13 +139,58 @@
   </si>
   <si>
     <t>additional row: array of reviews</t>
+  </si>
+  <si>
+    <t>Get all reviews by product id</t>
+  </si>
+  <si>
+    <t>Create new review</t>
+  </si>
+  <si>
+    <t>localhost/php-rest-api/reviews</t>
+  </si>
+  <si>
+    <t>localhost/php-rest-api/reviews/[id]</t>
+  </si>
+  <si>
+    <t>localhost/php-rest-api-git/reviews/[id]/products/[productid]</t>
+  </si>
+  <si>
+    <t>localhost/php-rest-api-git/reviews</t>
+  </si>
+  <si>
+    <t>{ "name":"string", "content": "string", "is_rate":10}</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>localhost/php-rest-api-git/auth/login</t>
+  </si>
+  <si>
+    <t>{ "email": "string", "password":"password"}</t>
+  </si>
+  <si>
+    <t>localhost/php-rest-api-git/auth/register</t>
+  </si>
+  <si>
+    <t>{ "email": "string", "password":"password", "firstName":"string","middleName":"string","lastName":"string","contactNo":"string"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +202,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,14 +282,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,94 +612,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FB72D2-9E07-4210-864C-C32CBB3C3FF3}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="26" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A20:L20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -638,27 +866,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F31B24-F335-4E66-A349-2332B2C6AA84}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
@@ -668,8 +896,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -679,8 +907,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
@@ -690,8 +918,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -701,15 +929,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
